--- a/biology/Botanique/Régine_Crespin_(rose)/Régine_Crespin_(rose).xlsx
+++ b/biology/Botanique/Régine_Crespin_(rose)/Régine_Crespin_(rose).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9gine_Crespin_(rose)</t>
+          <t>Régine_Crespin_(rose)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Régine Crespin' est un cultivar de rosier floribunda obtenu en 1990 par le rosiériste français Delbard[1]. Il est baptisé en hommage à la cantatrice française Régine Crespin (1927-2007)[2]. Il a été primé plusieurs fois grâce à sa bonne tenue et à son coloris original.
+'Régine Crespin' est un cultivar de rosier floribunda obtenu en 1990 par le rosiériste français Delbard. Il est baptisé en hommage à la cantatrice française Régine Crespin (1927-2007). Il a été primé plusieurs fois grâce à sa bonne tenue et à son coloris original.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9gine_Crespin_(rose)</t>
+          <t>Régine_Crespin_(rose)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce rosier vigoureux de moyenne taille (75 cm) est caractérisé par ses fleurs rose foncé et blanc crème[3], de taille moyenne en forme de coupe (26-40 pétales[4]). Elles fleurissent en bouquets tout au long de la saison. Elles ne sont pas parfumées. Ce rosier supporte les hivers froids à −20 °C.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce rosier vigoureux de moyenne taille (75 cm) est caractérisé par ses fleurs rose foncé et blanc crème, de taille moyenne en forme de coupe (26-40 pétales). Elles fleurissent en bouquets tout au long de la saison. Elles ne sont pas parfumées. Ce rosier supporte les hivers froids à −20 °C.
 Le rosier 'Régine Crespin' a besoin d'un emplacement ensoleillé pour bien fleurir. Il est parfait pour les massifs du jardin ou les fleurs à couper et surtout pour les premiers rangs en bordure.
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9gine_Crespin_(rose)</t>
+          <t>Régine_Crespin_(rose)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Prix de l'AJJH, 1992[5]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Prix de l'AJJH, 1992
 Bagatelle, prix de Bagatelle, 1993,
 Médaille de vermeil d'Orléans, 1994,
 Prix de Courtrai, 1995</t>
